--- a/res_mapping_schemes/mapping_Turkey_RES.xlsx
+++ b/res_mapping_schemes/mapping_Turkey_RES.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F423A6-F182-1041-804E-58F8EF13B8EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4557D643-0332-844C-82F4-C4506CF82B46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="460" windowWidth="25720" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping_turkey" sheetId="1" r:id="rId1"/>
-    <sheet name="mapping_instabul" sheetId="2" r:id="rId2"/>
+    <sheet name="mapping_istanbul" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:CV4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/res_mapping_schemes/mapping_Turkey_RES.xlsx
+++ b/res_mapping_schemes/mapping_Turkey_RES.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4557D643-0332-844C-82F4-C4506CF82B46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0AF0DB-AD39-1248-95D5-3B247DEDC109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="460" windowWidth="25720" windowHeight="14440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="460" windowWidth="25720" windowHeight="14440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mapping_turkey" sheetId="1" r:id="rId1"/>
-    <sheet name="mapping_istanbul" sheetId="2" r:id="rId2"/>
+    <sheet name="mapping_urban" sheetId="1" r:id="rId1"/>
+    <sheet name="mapping_rural" sheetId="4" r:id="rId2"/>
+    <sheet name="mapping_Istanbul" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="63">
   <si>
     <t>Steel sheet/frame</t>
   </si>
@@ -64,112 +65,6 @@
   </si>
   <si>
     <t>ADO</t>
-  </si>
-  <si>
-    <t>95% MUR+STRUB/LWAL+CDN/HBET:1-3/RES
-5% MUR+STRUB/LWAL+CDN/HBET:4-6/RES</t>
-  </si>
-  <si>
-    <t>100% MUR+STRUB/LWAL+CDN/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>100% MUR+ADO/LWAL+CDN/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>100% S/LFM+CDL/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>92% CR/LFINF(CBH)+CDL/HBET:1-3/RES
-5% CR/LFINF(CBH)+CDL/HBET:4-6/RES
-3% CR/LFINF(CBH)+CDL/HBET:7-/RES</t>
-  </si>
-  <si>
-    <t>100% CR+PC/LWAL+CDL/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>92% CR/LFINF(CBH)+CDL/HBET:1-3/RES
-5% CR/LFINF(CBH)+CDL/HBET:4-6/SOS/RES
-3% CR/LFINF(CBH)+CDL/HBET:7-/SOS/RES</t>
-  </si>
-  <si>
-    <t>45% CR/LDUAL+CDL/HBET:1-3/RES
-20% CR/LDUAL+CDL/HBET:4-6/RES
-35% CR/LDUAL+CDL/HBET:7-/RES</t>
-  </si>
-  <si>
-    <t>50% MUR+CBH/LWAL+CDN/HBET:1-3/RES
-50% CR/LWAL+CDL/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>100% MUR+CL/LWAL+CDN/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>25% CR/LDUAL+CDH/HBET:1-3/RES
-15% CR/LDUAL+CDH/HBET:4-6/RES
-7% CR/LDUAL+CDH/HBET:7-/RES
-25% CR/LWAL+CDH/HBET:1-3/RES
-20% CR/LWAL+CDH/HBET:4-6/RES
-8% CR/LWAL+CDH/HBET:7-/RES</t>
-  </si>
-  <si>
-    <t>40% MUR+CBH/LWAL+CDN/HBET:1-3/RES
-60% CR/LWAL+CDL/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>35% CR/LWAL+CDL/HBET:1-3/RES
-5% CR/LWAL+CDL/HBET:4-6/RES
-60% MUR+CL/LWAL+CDN/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>55% CR/LWAL+CDL/HBET:1-3/RES
-5% CR/LWAL+CDL/HBET:4-6/SOS/RES
-40% MUR+CL/LWAL+CDN/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>65% CR/LFINF+CDL/HBET:1-3/RES
-25% CR/LFINF+CDL/HBET:4-6/SOS/RES
-10% CR/LFINF+CDL/HBET:7-/SOS/RES</t>
-  </si>
-  <si>
-    <t>80% CR/LFINF(CL)+CDL/HBET:1-3/RES
-8% CR/LFINF(CL)+CDL/HBET:4-6/SOS/RES
-2% CR/LFINF(CL)+CDL/HBET:7-/SOS/RES
-10% MUR+CL/LWAL+CDN/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>38% CR/LFINF(CL)+CDL/HBET:4-6/RES
-2% CR/LFINF(CL)+CDL/HBET:7-/RES
-60% MUR+CL/LWAL+CDN/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>55% CR/LFINF+CDL/HBET:1-3/RES
-25% CR/LFINF+CDL/HBET:4-6/RES
-10% CR/LFINF+CDL/HBET:7-/RES
-10% CR/LFINF+CDN/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>50% CR/LFINF(CL)+CDL/HBET:1-3/RES
-8% CR/LFINF(CL)+CDL/HBET:4-6/SOS/RES
-2% CR/LFINF(CL)+CDL/HBET:7-/SOS/RES
-40% MUR+CL/LWAL+CDN/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>65% CR/LWAL+CDL/HBET:1-3/RES
-5% CR/LWAL+CDL/HBET:4-6/SOS/RES
-30% MUR+CL/LWAL+CDN/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>30% MUR+CBH/LWAL+CDN/HBET:1-3/RES
-70% CR/LWAL+CDL/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>100% W/LFM+CDL/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>100% W/LWAL+CDL/HBET:1-3/RES</t>
-  </si>
-  <si>
-    <t>100% CR/LWAL+CDL/HBET:1-3/RES</t>
   </si>
   <si>
     <t xml:space="preserve">100% S/LFM+CDL/HBET:1-3 </t>
@@ -303,6 +198,112 @@
   </si>
   <si>
     <t>Materal and housing type</t>
+  </si>
+  <si>
+    <t>100% S/LFM+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t>55% CR/LFINF+CDL/HBET:1-3
+25% CR/LFINF+CDL/HBET:4-6
+10% CR/LFINF+CDL/HBET:7-
+10% CR/LFINF+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>65% CR/LFINF+CDL/HBET:1-3
+25% CR/LFINF+CDL/HBET:4-6/SOS
+10% CR/LFINF+CDL/HBET:7-/SOS</t>
+  </si>
+  <si>
+    <t>92% CR/LFINF(CBH)+CDL/HBET:1-3
+5% CR/LFINF(CBH)+CDL/HBET:4-6
+3% CR/LFINF(CBH)+CDL/HBET:7-</t>
+  </si>
+  <si>
+    <t>92% CR/LFINF(CBH)+CDL/HBET:1-3
+5% CR/LFINF(CBH)+CDL/HBET:4-6/SOS
+3% CR/LFINF(CBH)+CDL/HBET:7-/SOS</t>
+  </si>
+  <si>
+    <t>38% CR/LFINF(CL)+CDL/HBET:4-6
+2% CR/LFINF(CL)+CDL/HBET:7-
+60% MUR+CL/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>50% CR/LFINF(CL)+CDL/HBET:1-3
+8% CR/LFINF(CL)+CDL/HBET:4-6/SOS
+2% CR/LFINF(CL)+CDL/HBET:7-/SOS
+40% MUR+CL/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>80% CR/LFINF(CL)+CDL/HBET:1-3
+8% CR/LFINF(CL)+CDL/HBET:4-6/SOS
+2% CR/LFINF(CL)+CDL/HBET:7-/SOS
+10% MUR+CL/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>100% W/LFM+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t>95% MUR+STRUB/LWAL+CDN/HBET:1-3
+5% MUR+STRUB/LWAL+CDN/HBET:4-6</t>
+  </si>
+  <si>
+    <t>40% MUR+CBH/LWAL+CDN/HBET:1-3
+60% CR/LWAL+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t>50% MUR+CBH/LWAL+CDN/HBET:1-3
+50% CR/LWAL+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t>30% MUR+CBH/LWAL+CDN/HBET:1-3
+70% CR/LWAL+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t>35% CR/LWAL+CDL/HBET:1-3
+5% CR/LWAL+CDL/HBET:4-6
+60% MUR+CL/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>55% CR/LWAL+CDL/HBET:1-3
+5% CR/LWAL+CDL/HBET:4-6/SOS
+40% MUR+CL/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>65% CR/LWAL+CDL/HBET:1-3
+5% CR/LWAL+CDL/HBET:4-6/SOS
+30% MUR+CL/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>100% W/LWAL+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t>100% MUR+STRUB/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>45% CR/LDUAL+CDL/HBET:1-3
+20% CR/LDUAL+CDL/HBET:4-6
+35% CR/LDUAL+CDL/HBET:7-</t>
+  </si>
+  <si>
+    <t>100% CR+PC/LWAL+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t>100% MUR+CL/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>100% CR/LWAL+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t>100% MUR+ADO/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>25% CR/LDUAL+CDH/HBET:1-3
+15% CR/LDUAL+CDH/HBET:4-6
+7% CR/LDUAL+CDH/HBET:7-
+25% CR/LWAL+CDH/HBET:1-3
+20% CR/LWAL+CDH/HBET:4-6
+8% CR/LWAL+CDH/HBET:7-</t>
   </si>
 </sst>
 </file>
@@ -685,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CV4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -713,7 +714,7 @@
   <sheetData>
     <row r="1" spans="1:100" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -749,7 +750,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>11</v>
@@ -761,60 +762,60 @@
         <v>13</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -900,57 +901,57 @@
       <c r="CU2" s="1"/>
       <c r="CV2" s="1"/>
     </row>
-    <row r="3" spans="1:100" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1036,57 +1037,57 @@
       <c r="CU3" s="1"/>
       <c r="CV3" s="1"/>
     </row>
-    <row r="4" spans="1:100" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1178,11 +1179,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD4CF4E-FBB1-064F-B3DD-699650C3309B}">
   <dimension ref="A1:CV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1200,16 +1201,16 @@
     <col min="11" max="11" width="40.1640625" customWidth="1"/>
     <col min="12" max="12" width="30.33203125" customWidth="1"/>
     <col min="13" max="13" width="32.1640625" customWidth="1"/>
-    <col min="14" max="14" width="37" customWidth="1"/>
+    <col min="14" max="14" width="40.1640625" customWidth="1"/>
     <col min="15" max="15" width="38.83203125" customWidth="1"/>
     <col min="16" max="16" width="35.6640625" customWidth="1"/>
-    <col min="17" max="17" width="38.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.5" style="1" customWidth="1"/>
     <col min="18" max="100" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1245,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>11</v>
@@ -1257,60 +1258,60 @@
         <v>13</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1398,55 +1399,55 @@
     </row>
     <row r="3" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="P3" s="3" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1534,55 +1535,551 @@
     </row>
     <row r="4" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="Q4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:CV4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="40.5" customWidth="1"/>
+    <col min="8" max="8" width="36.5" customWidth="1"/>
+    <col min="9" max="9" width="33.5" customWidth="1"/>
+    <col min="10" max="10" width="31.5" customWidth="1"/>
+    <col min="11" max="11" width="40.1640625" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" customWidth="1"/>
+    <col min="13" max="13" width="32.1640625" customWidth="1"/>
+    <col min="14" max="14" width="37" customWidth="1"/>
+    <col min="15" max="15" width="38.83203125" customWidth="1"/>
+    <col min="16" max="16" width="35.6640625" customWidth="1"/>
+    <col min="17" max="17" width="38.5" style="1" customWidth="1"/>
+    <col min="18" max="100" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:100" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1"/>
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1"/>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1"/>
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+    </row>
+    <row r="3" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+    </row>
+    <row r="4" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>

--- a/res_mapping_schemes/mapping_Turkey_RES.xlsx
+++ b/res_mapping_schemes/mapping_Turkey_RES.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0AF0DB-AD39-1248-95D5-3B247DEDC109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCD1136-BC55-3F49-9080-F4B86CD241E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="460" windowWidth="25720" windowHeight="14440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping_urban" sheetId="1" r:id="rId1"/>
     <sheet name="mapping_rural" sheetId="4" r:id="rId2"/>
-    <sheet name="mapping_Istanbul" sheetId="2" r:id="rId3"/>
+    <sheet name="mapping_istanbul" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="52">
   <si>
     <t>Steel sheet/frame</t>
   </si>
@@ -65,92 +65,6 @@
   </si>
   <si>
     <t>ADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% S/LFM+CDL/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30% CR/LFINF+CDL/HBET:1-3 
-45% CR/LFINF+CDL/HBET:4-6 
-15% CR/LFINF+CDL/HBET:7- 
-10% CR/LFINF+CDN/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">92% CR/LFINF(CBH)+CDL/HBET:1-3 
-5% CR/LFINF(CBH)+CDL/HBET:4-6 
-3% CR/LFINF(CBH)+CDL/HBET:7- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16% CR/LFINF(CL)+CDL/HBET:1-3 
-44% CR/LFINF(CL)+CDL/HBET:4-6 
-10% CR/LFINF(CL)+CDL/HBET:7- 
-30% MUR+CL/LWAL+CDN/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80% W/LFM+CDN/HBET:1-3 
-20% W/LFM+CDL/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% MUR+STRUB/LWAL+CDN/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50% MUR+CBH/LWAL+CDN/HBET:1-3 
-50% CR/LWAL+CDL/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">35% CR/LWAL+CDL/HBET:1-3 
-10% CR/LWAL+CDL/HBET:4-6 
-55% MUR+CL/LWAL+CDN/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80% W/LWAL+CDN/HBET:1-3 
-20% W/LWAL+CDL/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">45% CR/LDUAL+CDL/HBET:1-3 
-20% CR/LDUAL+CDL/HBET:4-6 
-35% CR/LDUAL+CDL/HBET:7- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% CR+PC/LWAL+CDL/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% MUR+CL/LWAL+CDN/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">100% MUR+ADO/LWAL+CDN/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20% CR/LDUAL+CDH/HBET:1-3 
-20% CR/LDUAL+CDH/HBET:4-6 
-7% CR/LDUAL+CDH/HBET:7- 
-25% CR/LWAL+CDH/HBET:1-3 
-20% CR/LWAL+CDH/HBET:4-6 
-8% CR/LWAL+CDH/HBET:7- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">92% CR/LFINF(CBH)+CDL/HBET:1-3 
-5% CR/LFINF(CBH)+CDL/HBET:4-6/SOS 
-3% CR/LFINF(CBH)+CDL/HBET:7-/SOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">23% CR/LFINF(CL)+CDL/HBET:1-3 
-44% CR/LFINF(CL)+CDL/HBET:4-6 
-10% CR/LFINF(CL)+CDL/HBET:7- 
-23% MUR+CL/LWAL+CDN/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">95% MUR+STRUB/LWAL+CDN/HBET:1-3 
-5% MUR+STRUB/LWAL+CDN/HBET:4-6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">45% CR/LWAL+CDL/HBET:1-3 
-10% CR/LWAL+CDL/HBET:4-6 
-45% MUR+CL/LWAL+CDN/HBET:1-3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30% MUR+CBH/LWAL+CDN/HBET:1-3 
-70% CR/LWAL+CDL/HBET:1-3 </t>
   </si>
   <si>
     <t xml:space="preserve">RES_2017
@@ -300,6 +214,50 @@
   <si>
     <t>25% CR/LDUAL+CDH/HBET:1-3
 15% CR/LDUAL+CDH/HBET:4-6
+7% CR/LDUAL+CDH/HBET:7-
+25% CR/LWAL+CDH/HBET:1-3
+20% CR/LWAL+CDH/HBET:4-6
+8% CR/LWAL+CDH/HBET:7-</t>
+  </si>
+  <si>
+    <t>30% CR/LFINF+CDL/HBET:1-3
+45% CR/LFINF+CDL/HBET:4-6
+15% CR/LFINF+CDL/HBET:7-
+10% CR/LFINF+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>16% CR/LFINF(CL)+CDL/HBET:1-3
+44% CR/LFINF(CL)+CDL/HBET:4-6
+10% CR/LFINF(CL)+CDL/HBET:7-
+30% MUR+CL/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>23% CR/LFINF(CL)+CDL/HBET:1-3
+44% CR/LFINF(CL)+CDL/HBET:4-6
+10% CR/LFINF(CL)+CDL/HBET:7-
+23% MUR+CL/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>80% W/LFM+CDN/HBET:1-3
+20% W/LFM+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t>35% CR/LWAL+CDL/HBET:1-3
+10% CR/LWAL+CDL/HBET:4-6
+55% MUR+CL/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>45% CR/LWAL+CDL/HBET:1-3
+10% CR/LWAL+CDL/HBET:4-6
+45% MUR+CL/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>80% W/LWAL+CDN/HBET:1-3
+20% W/LWAL+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t>20% CR/LDUAL+CDH/HBET:1-3
+20% CR/LDUAL+CDH/HBET:4-6
 7% CR/LDUAL+CDH/HBET:7-
 25% CR/LWAL+CDH/HBET:1-3
 20% CR/LWAL+CDH/HBET:4-6
@@ -714,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:100" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -750,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>11</v>
@@ -762,60 +720,60 @@
         <v>13</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="O2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -903,55 +861,55 @@
     </row>
     <row r="3" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="P3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1039,55 +997,55 @@
     </row>
     <row r="4" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="L4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="O4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1210,7 +1168,7 @@
   <sheetData>
     <row r="1" spans="1:100" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1246,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>11</v>
@@ -1258,60 +1216,60 @@
         <v>13</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="O2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="Q2" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1399,55 +1357,55 @@
     </row>
     <row r="3" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="N3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="P3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1535,55 +1493,55 @@
     </row>
     <row r="4" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="L4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="O4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1678,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1706,7 +1664,7 @@
   <sheetData>
     <row r="1" spans="1:100" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -1742,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>11</v>
@@ -1754,60 +1712,60 @@
         <v>13</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1895,55 +1853,55 @@
     </row>
     <row r="3" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -2031,55 +1989,55 @@
     </row>
     <row r="4" spans="1:100" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
